--- a/CS5287 Asgmt 4 Plots.xlsx
+++ b/CS5287 Asgmt 4 Plots.xlsx
@@ -8,20 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin's PC\Desktop\Vanderbilt\CS5287 Cloud Computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280929AA-FF12-473C-82B0-2FFDDAC46DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85E11D2-CE47-4308-8313-08FF223359DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2610" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{26DB56C7-7AE5-463A-873C-B72DE0877F6E}"/>
+    <workbookView xWindow="-28920" yWindow="-2610" windowWidth="29040" windowHeight="15840" xr2:uid="{26DB56C7-7AE5-463A-873C-B72DE0877F6E}"/>
   </bookViews>
   <sheets>
-    <sheet name="for M=10,R=2" sheetId="1" r:id="rId1"/>
-    <sheet name="for M=50,R=5" sheetId="2" r:id="rId2"/>
-    <sheet name="for M=100,R=10" sheetId="3" r:id="rId3"/>
+    <sheet name="for M=10,R=2" sheetId="4" r:id="rId1"/>
+    <sheet name="for M=50,R=5" sheetId="1" r:id="rId2"/>
+    <sheet name="for M=100,R=10" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'for M=10,R=2'!$A$3:$A$22</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'for M=10,R=2'!$B$1:$B$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'for M=10,R=2'!$B$3:$B$22</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -133,13 +128,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,76 +259,46 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'for M=10,R=2'!$B$3:$B$22</c:f>
+              <c:f>'for M=10,R=2'!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12.444090604782099</c:v>
+                  <c:v>12.631449699399999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.7076630592346</c:v>
+                  <c:v>11.7360930443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.2034292221069</c:v>
+                  <c:v>14.451318502399999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.524199008941601</c:v>
+                  <c:v>14.025473117800001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.3561463356018</c:v>
+                  <c:v>11.83913517</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.3245425224304</c:v>
+                  <c:v>14.584370851499999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.3578820228576</c:v>
+                  <c:v>11.961479902300001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.3658673763275</c:v>
+                  <c:v>12.238754033999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.347968101501399</c:v>
+                  <c:v>13.762757778199999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.292052745818999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.3726370334625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.4195370674133</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.3206634521484</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.3126218318939</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.6761760711669</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.7275187969207</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.433907985687201</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.4395117759704</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.045765399932799</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11.2492311000823</c:v>
+                  <c:v>12.1774988174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E0E-4965-A2D9-8B31DDE5CF19}"/>
+              <c16:uniqueId val="{00000000-4A27-473A-B7C6-4465283E4E26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -381,69 +346,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'for M=10,R=2'!$C$3:$C$22</c:f>
+              <c:f>'for M=10,R=2'!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12.06153178215021</c:v>
+                  <c:v>14.464623737309999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.06153178215021</c:v>
+                  <c:v>14.464623737309999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.06153178215021</c:v>
+                  <c:v>14.464623737309999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.06153178215021</c:v>
+                  <c:v>14.464623737309999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.06153178215021</c:v>
+                  <c:v>14.464623737309999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.06153178215021</c:v>
+                  <c:v>14.464623737309999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.06153178215021</c:v>
+                  <c:v>14.464623737309999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.06153178215021</c:v>
+                  <c:v>14.464623737309999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.06153178215021</c:v>
+                  <c:v>14.464623737309999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.06153178215021</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.06153178215021</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.06153178215021</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.06153178215021</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.06153178215021</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12.06153178215021</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.06153178215021</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.06153178215021</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.06153178215021</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.06153178215021</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.06153178215021</c:v>
+                  <c:v>14.464623737309999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -451,7 +386,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1E0E-4965-A2D9-8B31DDE5CF19}"/>
+              <c16:uniqueId val="{00000001-4A27-473A-B7C6-4465283E4E26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -483,69 +418,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'for M=10,R=2'!$D$3:$D$22</c:f>
+              <c:f>'for M=10,R=2'!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12.215462291240661</c:v>
+                  <c:v>14.524497294404998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.215462291240661</c:v>
+                  <c:v>14.524497294404998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.215462291240661</c:v>
+                  <c:v>14.524497294404998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.215462291240661</c:v>
+                  <c:v>14.524497294404998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.215462291240661</c:v>
+                  <c:v>14.524497294404998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.215462291240661</c:v>
+                  <c:v>14.524497294404998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.215462291240661</c:v>
+                  <c:v>14.524497294404998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.215462291240661</c:v>
+                  <c:v>14.524497294404998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.215462291240661</c:v>
+                  <c:v>14.524497294404998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.215462291240661</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.215462291240661</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.215462291240661</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.215462291240661</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.215462291240661</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12.215462291240661</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.215462291240661</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.215462291240661</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.215462291240661</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.215462291240661</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.215462291240661</c:v>
+                  <c:v>14.524497294404998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -553,7 +458,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1E0E-4965-A2D9-8B31DDE5CF19}"/>
+              <c16:uniqueId val="{00000002-4A27-473A-B7C6-4465283E4E26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -585,69 +490,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'for M=10,R=2'!$E$3:$E$22</c:f>
+              <c:f>'for M=10,R=2'!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12.398364942073812</c:v>
+                  <c:v>14.572396140080999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.398364942073812</c:v>
+                  <c:v>14.572396140080999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.398364942073812</c:v>
+                  <c:v>14.572396140080999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.398364942073812</c:v>
+                  <c:v>14.572396140080999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.398364942073812</c:v>
+                  <c:v>14.572396140080999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.398364942073812</c:v>
+                  <c:v>14.572396140080999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.398364942073812</c:v>
+                  <c:v>14.572396140080999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.398364942073812</c:v>
+                  <c:v>14.572396140080999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.398364942073812</c:v>
+                  <c:v>14.572396140080999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.398364942073812</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.398364942073812</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.398364942073812</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.398364942073812</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.398364942073812</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12.398364942073812</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.398364942073812</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.398364942073812</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.398364942073812</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.398364942073812</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.398364942073812</c:v>
+                  <c:v>14.572396140080999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,7 +530,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1E0E-4965-A2D9-8B31DDE5CF19}"/>
+              <c16:uniqueId val="{00000003-4A27-473A-B7C6-4465283E4E26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -781,7 +656,7 @@
         <c:axId val="424133024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="10.6"/>
+          <c:min val="11.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1081,76 +956,46 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'for M=50,R=5'!$B$3:$B$22</c:f>
+              <c:f>'for M=50,R=5'!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16.782040834426802</c:v>
+                  <c:v>11.073655366900001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.4101641178131</c:v>
+                  <c:v>10.8249709606</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.3754324913024</c:v>
+                  <c:v>10.482180118600001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.342121601104701</c:v>
+                  <c:v>10.8173418045</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.0996749401092</c:v>
+                  <c:v>11.048956632599999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.223348140716499</c:v>
+                  <c:v>11.0314879417</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.046407699584901</c:v>
+                  <c:v>10.727843523000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.1719059944152</c:v>
+                  <c:v>10.66446805</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.26314163208</c:v>
+                  <c:v>10.6282291412</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.050421714782701</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.214004993438699</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.114795446395799</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.9140200614929</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15.093516588210999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.2352318763732</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.4791269302368</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.349816083907999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.4733266830444</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.418876647949199</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.3558781147003</c:v>
+                  <c:v>10.7446641922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6ED0-4C75-9CF5-9B1EA7916F7E}"/>
+              <c16:uniqueId val="{00000000-1E0E-4965-A2D9-8B31DDE5CF19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1198,69 +1043,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'for M=50,R=5'!$C$3:$C$22</c:f>
+              <c:f>'for M=50,R=5'!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.378905653953471</c:v>
+                  <c:v>11.051426506029999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.378905653953471</c:v>
+                  <c:v>11.051426506029999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.378905653953471</c:v>
+                  <c:v>11.051426506029999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.378905653953471</c:v>
+                  <c:v>11.051426506029999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.378905653953471</c:v>
+                  <c:v>11.051426506029999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.378905653953471</c:v>
+                  <c:v>11.051426506029999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.378905653953471</c:v>
+                  <c:v>11.051426506029999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.378905653953471</c:v>
+                  <c:v>11.051426506029999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.378905653953471</c:v>
+                  <c:v>11.051426506029999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.378905653953471</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.378905653953471</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.378905653953471</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.378905653953471</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15.378905653953471</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.378905653953471</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.378905653953471</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.378905653953471</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15.378905653953471</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15.378905653953471</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>15.378905653953471</c:v>
+                  <c:v>11.051426506029999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1268,7 +1083,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6ED0-4C75-9CF5-9B1EA7916F7E}"/>
+              <c16:uniqueId val="{00000001-1E0E-4965-A2D9-8B31DDE5CF19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1300,69 +1115,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'for M=50,R=5'!$D$3:$D$22</c:f>
+              <c:f>'for M=50,R=5'!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.478757953643786</c:v>
+                  <c:v>11.062540936465</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.478757953643786</c:v>
+                  <c:v>11.062540936465</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.478757953643786</c:v>
+                  <c:v>11.062540936465</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.478757953643786</c:v>
+                  <c:v>11.062540936465</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.478757953643786</c:v>
+                  <c:v>11.062540936465</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.478757953643786</c:v>
+                  <c:v>11.062540936465</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.478757953643786</c:v>
+                  <c:v>11.062540936465</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.478757953643786</c:v>
+                  <c:v>11.062540936465</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.478757953643786</c:v>
+                  <c:v>11.062540936465</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.478757953643786</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.478757953643786</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.478757953643786</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.478757953643786</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15.478757953643786</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.478757953643786</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.478757953643786</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.478757953643786</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15.478757953643786</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15.478757953643786</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>15.478757953643786</c:v>
+                  <c:v>11.062540936465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1370,7 +1155,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6ED0-4C75-9CF5-9B1EA7916F7E}"/>
+              <c16:uniqueId val="{00000002-1E0E-4965-A2D9-8B31DDE5CF19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1402,69 +1187,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'for M=50,R=5'!$E$3:$E$22</c:f>
+              <c:f>'for M=50,R=5'!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16.521384258270196</c:v>
+                  <c:v>11.071432480813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.521384258270196</c:v>
+                  <c:v>11.071432480813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.521384258270196</c:v>
+                  <c:v>11.071432480813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.521384258270196</c:v>
+                  <c:v>11.071432480813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.521384258270196</c:v>
+                  <c:v>11.071432480813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.521384258270196</c:v>
+                  <c:v>11.071432480813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.521384258270196</c:v>
+                  <c:v>11.071432480813</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.521384258270196</c:v>
+                  <c:v>11.071432480813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.521384258270196</c:v>
+                  <c:v>11.071432480813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.521384258270196</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16.521384258270196</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.521384258270196</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16.521384258270196</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.521384258270196</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.521384258270196</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.521384258270196</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16.521384258270196</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16.521384258270196</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16.521384258270196</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>16.521384258270196</c:v>
+                  <c:v>11.071432480813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1472,7 +1227,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6ED0-4C75-9CF5-9B1EA7916F7E}"/>
+              <c16:uniqueId val="{00000003-1E0E-4965-A2D9-8B31DDE5CF19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1598,8 +1353,8 @@
         <c:axId val="424133024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="17"/>
-          <c:min val="11"/>
+          <c:max val="11.1"/>
+          <c:min val="10.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1899,76 +1654,46 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'for M=100,R=10'!$B$3:$B$22</c:f>
+              <c:f>'for M=100,R=10'!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>19.981394529342602</c:v>
+                  <c:v>15.223271131500001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.121957063674898</c:v>
+                  <c:v>15.1457662582</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.6752686500549</c:v>
+                  <c:v>15.1997513771</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.5294334888458</c:v>
+                  <c:v>14.8670883179</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.1707119941711</c:v>
+                  <c:v>14.734104633299999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.160521984100299</c:v>
+                  <c:v>14.886801004400001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.273889541625898</c:v>
+                  <c:v>14.8352348804</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.711396455764699</c:v>
+                  <c:v>14.7816438675</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.0458180904388</c:v>
+                  <c:v>15.1260919571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.098216056823698</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.044569492339999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.609915018081601</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.593332529067901</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>35.848748922348001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>23.19331741333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.4158082008361</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.343692302703801</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.5692281723022</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20.6111850738525</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.4150536060333</c:v>
+                  <c:v>15.015057086900001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AAE3-4A5B-987D-D3AD5EB910BA}"/>
+              <c16:uniqueId val="{00000000-6ED0-4C75-9CF5-9B1EA7916F7E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2016,69 +1741,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'for M=100,R=10'!$C$3:$C$22</c:f>
+              <c:f>'for M=100,R=10'!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>23.8333189249038</c:v>
+                  <c:v>15.20210335254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.8333189249038</c:v>
+                  <c:v>15.20210335254</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.8333189249038</c:v>
+                  <c:v>15.20210335254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.8333189249038</c:v>
+                  <c:v>15.20210335254</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.8333189249038</c:v>
+                  <c:v>15.20210335254</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.8333189249038</c:v>
+                  <c:v>15.20210335254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.8333189249038</c:v>
+                  <c:v>15.20210335254</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.8333189249038</c:v>
+                  <c:v>15.20210335254</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.8333189249038</c:v>
+                  <c:v>15.20210335254</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.8333189249038</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23.8333189249038</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.8333189249038</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.8333189249038</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.8333189249038</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>23.8333189249038</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>23.8333189249038</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23.8333189249038</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.8333189249038</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.8333189249038</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>23.8333189249038</c:v>
+                  <c:v>15.20210335254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2086,7 +1781,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AAE3-4A5B-987D-D3AD5EB910BA}"/>
+              <c16:uniqueId val="{00000001-6ED0-4C75-9CF5-9B1EA7916F7E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2118,69 +1813,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'for M=100,R=10'!$D$3:$D$22</c:f>
+              <c:f>'for M=100,R=10'!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>29.906103348731911</c:v>
+                  <c:v>15.212687242020001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.906103348731911</c:v>
+                  <c:v>15.212687242020001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.906103348731911</c:v>
+                  <c:v>15.212687242020001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.906103348731911</c:v>
+                  <c:v>15.212687242020001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.906103348731911</c:v>
+                  <c:v>15.212687242020001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.906103348731911</c:v>
+                  <c:v>15.212687242020001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.906103348731911</c:v>
+                  <c:v>15.212687242020001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.906103348731911</c:v>
+                  <c:v>15.212687242020001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.906103348731911</c:v>
+                  <c:v>15.212687242020001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.906103348731911</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29.906103348731911</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29.906103348731911</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.906103348731911</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29.906103348731911</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29.906103348731911</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>29.906103348731911</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>29.906103348731911</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>29.906103348731911</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>29.906103348731911</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29.906103348731911</c:v>
+                  <c:v>15.212687242020001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2188,7 +1853,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AAE3-4A5B-987D-D3AD5EB910BA}"/>
+              <c16:uniqueId val="{00000002-6ED0-4C75-9CF5-9B1EA7916F7E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2220,69 +1885,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'for M=100,R=10'!$E$3:$E$22</c:f>
+              <c:f>'for M=100,R=10'!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>34.66021980762477</c:v>
+                  <c:v>15.221154353604001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.66021980762477</c:v>
+                  <c:v>15.221154353604001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.66021980762477</c:v>
+                  <c:v>15.221154353604001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.66021980762477</c:v>
+                  <c:v>15.221154353604001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.66021980762477</c:v>
+                  <c:v>15.221154353604001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.66021980762477</c:v>
+                  <c:v>15.221154353604001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.66021980762477</c:v>
+                  <c:v>15.221154353604001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.66021980762477</c:v>
+                  <c:v>15.221154353604001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.66021980762477</c:v>
+                  <c:v>15.221154353604001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.66021980762477</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>34.66021980762477</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>34.66021980762477</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>34.66021980762477</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>34.66021980762477</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>34.66021980762477</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>34.66021980762477</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34.66021980762477</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>34.66021980762477</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>34.66021980762477</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>34.66021980762477</c:v>
+                  <c:v>15.221154353604001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2290,7 +1925,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AAE3-4A5B-987D-D3AD5EB910BA}"/>
+              <c16:uniqueId val="{00000003-6ED0-4C75-9CF5-9B1EA7916F7E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2416,7 +2051,8 @@
         <c:axId val="424133024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="15"/>
+          <c:max val="15.3"/>
+          <c:min val="14.7"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2525,7 +2161,6 @@
         <c:crossAx val="424135320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4256,6 +3891,49 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3B43F2-D8A9-4725-A005-7983A3259DA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -4280,7 +3958,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4301,49 +3979,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{254211F6-E267-479C-8045-503BD557197D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>271461</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D30D9106-D153-4531-805D-4EE3E25E2F38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4662,11 +4297,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DC930D-683B-400E-80A2-5954677B3222}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2DBFD1-239C-4870-8018-CEF3C021BD04}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4678,16 +4313,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
@@ -4718,19 +4353,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>12.444090604782099</v>
+        <v>12.631449699399999</v>
       </c>
       <c r="C3" s="1">
-        <f>_xlfn.PERCENTILE.INC($B$3:$B$22, 0.9)</f>
-        <v>12.06153178215021</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>14.464623737309999</v>
       </c>
       <c r="D3" s="1">
-        <f>_xlfn.PERCENTILE.INC($B$3:$B$22, 0.95)</f>
-        <v>12.215462291240661</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>14.524497294404998</v>
       </c>
       <c r="E3" s="1">
-        <f>_xlfn.PERCENTILE.INC($B$3:$B$22, 0.99)</f>
-        <v>12.398364942073812</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>14.572396140080999</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4743,19 +4378,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>11.7076630592346</v>
+        <v>11.7360930443</v>
       </c>
       <c r="C4" s="1">
-        <f>_xlfn.PERCENTILE.INC($B$3:$B$22, 0.9)</f>
-        <v>12.06153178215021</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>14.464623737309999</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D22" si="0">_xlfn.PERCENTILE.INC($B$3:$B$22, 0.95)</f>
-        <v>12.215462291240661</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>14.524497294404998</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E22" si="1">_xlfn.PERCENTILE.INC($B$3:$B$22, 0.99)</f>
-        <v>12.398364942073812</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>14.572396140080999</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4768,19 +4403,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>12.2034292221069</v>
+        <v>14.451318502399999</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C22" si="2">_xlfn.PERCENTILE.INC($B$3:$B$22, 0.9)</f>
-        <v>12.06153178215021</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>14.464623737309999</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>12.215462291240661</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>14.524497294404998</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>12.398364942073812</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>14.572396140080999</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -4793,19 +4428,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>11.524199008941601</v>
+        <v>14.025473117800001</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="2"/>
-        <v>12.06153178215021</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>14.464623737309999</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>12.215462291240661</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>14.524497294404998</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>12.398364942073812</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>14.572396140080999</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -4818,19 +4453,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>11.3561463356018</v>
+        <v>11.83913517</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="2"/>
-        <v>12.06153178215021</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>14.464623737309999</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>12.215462291240661</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>14.524497294404998</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>12.398364942073812</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>14.572396140080999</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -4843,19 +4478,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>11.3245425224304</v>
+        <v>14.584370851499999</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="2"/>
-        <v>12.06153178215021</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>14.464623737309999</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>12.215462291240661</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>14.524497294404998</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>12.398364942073812</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>14.572396140080999</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -4868,19 +4503,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>11.3578820228576</v>
+        <v>11.961479902300001</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="2"/>
-        <v>12.06153178215021</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>14.464623737309999</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>12.215462291240661</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>14.524497294404998</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>12.398364942073812</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>14.572396140080999</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -4893,19 +4528,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>11.3658673763275</v>
+        <v>12.238754033999999</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="2"/>
-        <v>12.06153178215021</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>14.464623737309999</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>12.215462291240661</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>14.524497294404998</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>12.398364942073812</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>14.572396140080999</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -4918,19 +4553,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>11.347968101501399</v>
+        <v>13.762757778199999</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="2"/>
-        <v>12.06153178215021</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>14.464623737309999</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>12.215462291240661</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>14.524497294404998</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>12.398364942073812</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>14.572396140080999</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -4943,19 +4578,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>11.292052745818999</v>
+        <v>12.1774988174</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="2"/>
-        <v>12.06153178215021</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>14.464623737309999</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>12.215462291240661</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>14.524497294404998</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>12.398364942073812</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>14.572396140080999</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -4964,254 +4599,458 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>11.3726370334625</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="2"/>
-        <v>12.06153178215021</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>12.215462291240661</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>12.398364942073812</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>11.4195370674133</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="2"/>
-        <v>12.06153178215021</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>12.215462291240661</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>12.398364942073812</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>11.3206634521484</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="2"/>
-        <v>12.06153178215021</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>12.215462291240661</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>12.398364942073812</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>11.3126218318939</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="2"/>
-        <v>12.06153178215021</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>12.215462291240661</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>12.398364942073812</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>11.6761760711669</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="2"/>
-        <v>12.06153178215021</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>12.215462291240661</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>12.398364942073812</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>11.7275187969207</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="2"/>
-        <v>12.06153178215021</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>12.215462291240661</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>12.398364942073812</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>11.433907985687201</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="2"/>
-        <v>12.06153178215021</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>12.215462291240661</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>12.398364942073812</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>11.4395117759704</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="2"/>
-        <v>12.06153178215021</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>12.215462291240661</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>12.398364942073812</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>12.045765399932799</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="2"/>
-        <v>12.06153178215021</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>12.215462291240661</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>12.398364942073812</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>11.2492311000823</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="2"/>
-        <v>12.06153178215021</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>12.215462291240661</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>12.398364942073812</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DC930D-683B-400E-80A2-5954677B3222}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="5" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11.073655366900001</v>
+      </c>
+      <c r="C3" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>11.051426506029999</v>
+      </c>
+      <c r="D3" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>11.062540936465</v>
+      </c>
+      <c r="E3" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>11.071432480813</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10.8249709606</v>
+      </c>
+      <c r="C4" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>11.051426506029999</v>
+      </c>
+      <c r="D4" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>11.062540936465</v>
+      </c>
+      <c r="E4" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>11.071432480813</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10.482180118600001</v>
+      </c>
+      <c r="C5" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>11.051426506029999</v>
+      </c>
+      <c r="D5" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>11.062540936465</v>
+      </c>
+      <c r="E5" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>11.071432480813</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10.8173418045</v>
+      </c>
+      <c r="C6" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>11.051426506029999</v>
+      </c>
+      <c r="D6" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>11.062540936465</v>
+      </c>
+      <c r="E6" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>11.071432480813</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11.048956632599999</v>
+      </c>
+      <c r="C7" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>11.051426506029999</v>
+      </c>
+      <c r="D7" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>11.062540936465</v>
+      </c>
+      <c r="E7" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>11.071432480813</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>11.0314879417</v>
+      </c>
+      <c r="C8" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>11.051426506029999</v>
+      </c>
+      <c r="D8" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>11.062540936465</v>
+      </c>
+      <c r="E8" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>11.071432480813</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10.727843523000001</v>
+      </c>
+      <c r="C9" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>11.051426506029999</v>
+      </c>
+      <c r="D9" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>11.062540936465</v>
+      </c>
+      <c r="E9" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>11.071432480813</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10.66446805</v>
+      </c>
+      <c r="C10" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>11.051426506029999</v>
+      </c>
+      <c r="D10" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>11.062540936465</v>
+      </c>
+      <c r="E10" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>11.071432480813</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10.6282291412</v>
+      </c>
+      <c r="C11" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>11.051426506029999</v>
+      </c>
+      <c r="D11" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>11.062540936465</v>
+      </c>
+      <c r="E11" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>11.071432480813</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10.7446641922</v>
+      </c>
+      <c r="C12" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>11.051426506029999</v>
+      </c>
+      <c r="D12" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>11.062540936465</v>
+      </c>
+      <c r="E12" s="1">
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>11.071432480813</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5225,12 +5064,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F779958-D882-4F70-AC1C-7DEC738A6BA9}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5242,16 +5081,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
@@ -5282,19 +5121,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>16.782040834426802</v>
+        <v>15.223271131500001</v>
       </c>
       <c r="C3" s="1">
-        <f>_xlfn.PERCENTILE.INC($B$3:$B$22, 0.9)</f>
-        <v>15.378905653953471</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>15.20210335254</v>
       </c>
       <c r="D3" s="1">
-        <f>_xlfn.PERCENTILE.INC($B$3:$B$22, 0.95)</f>
-        <v>15.478757953643786</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>15.212687242020001</v>
       </c>
       <c r="E3" s="1">
-        <f>_xlfn.PERCENTILE.INC($B$3:$B$22, 0.99)</f>
-        <v>16.521384258270196</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>15.221154353604001</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -5307,19 +5146,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>15.4101641178131</v>
+        <v>15.1457662582</v>
       </c>
       <c r="C4" s="1">
-        <f>_xlfn.PERCENTILE.INC($B$3:$B$22, 0.9)</f>
-        <v>15.378905653953471</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>15.20210335254</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D22" si="0">_xlfn.PERCENTILE.INC($B$3:$B$22, 0.95)</f>
-        <v>15.478757953643786</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>15.212687242020001</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E22" si="1">_xlfn.PERCENTILE.INC($B$3:$B$22, 0.99)</f>
-        <v>16.521384258270196</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>15.221154353604001</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -5332,19 +5171,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>15.3754324913024</v>
+        <v>15.1997513771</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C22" si="2">_xlfn.PERCENTILE.INC($B$3:$B$22, 0.9)</f>
-        <v>15.378905653953471</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>15.20210335254</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>15.478757953643786</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>15.212687242020001</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>16.521384258270196</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>15.221154353604001</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -5357,19 +5196,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>15.342121601104701</v>
+        <v>14.8670883179</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="2"/>
-        <v>15.378905653953471</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>15.20210335254</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>15.478757953643786</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>15.212687242020001</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>16.521384258270196</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>15.221154353604001</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -5382,19 +5221,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>15.0996749401092</v>
+        <v>14.734104633299999</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="2"/>
-        <v>15.378905653953471</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>15.20210335254</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>15.478757953643786</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>15.212687242020001</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>16.521384258270196</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>15.221154353604001</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -5407,19 +5246,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>15.223348140716499</v>
+        <v>14.886801004400001</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="2"/>
-        <v>15.378905653953471</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>15.20210335254</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>15.478757953643786</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>15.212687242020001</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>16.521384258270196</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>15.221154353604001</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -5432,19 +5271,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>15.046407699584901</v>
+        <v>14.8352348804</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="2"/>
-        <v>15.378905653953471</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>15.20210335254</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>15.478757953643786</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>15.212687242020001</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>16.521384258270196</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>15.221154353604001</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -5457,19 +5296,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>15.1719059944152</v>
+        <v>14.7816438675</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="2"/>
-        <v>15.378905653953471</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>15.20210335254</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>15.478757953643786</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>15.212687242020001</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>16.521384258270196</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>15.221154353604001</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -5482,19 +5321,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>15.26314163208</v>
+        <v>15.1260919571</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="2"/>
-        <v>15.378905653953471</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>15.20210335254</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>15.478757953643786</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>15.212687242020001</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>16.521384258270196</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>15.221154353604001</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -5507,19 +5346,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>15.050421714782701</v>
+        <v>15.015057086900001</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="2"/>
-        <v>15.378905653953471</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.9)</f>
+        <v>15.20210335254</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>15.478757953643786</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.95)</f>
+        <v>15.212687242020001</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>16.521384258270196</v>
+        <f>_xlfn.PERCENTILE.INC($B$3:$B$12, 0.99)</f>
+        <v>15.221154353604001</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -5528,818 +5367,74 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>15.214004993438699</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="2"/>
-        <v>15.378905653953471</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>15.478757953643786</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>16.521384258270196</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>15.114795446395799</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="2"/>
-        <v>15.378905653953471</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>15.478757953643786</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>16.521384258270196</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>14.9140200614929</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="2"/>
-        <v>15.378905653953471</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>15.478757953643786</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>16.521384258270196</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>15.093516588210999</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="2"/>
-        <v>15.378905653953471</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>15.478757953643786</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>16.521384258270196</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>14.2352318763732</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="2"/>
-        <v>15.378905653953471</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>15.478757953643786</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>16.521384258270196</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>12.4791269302368</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="2"/>
-        <v>15.378905653953471</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>15.478757953643786</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>16.521384258270196</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>12.349816083907999</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="2"/>
-        <v>15.378905653953471</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>15.478757953643786</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>16.521384258270196</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>12.4733266830444</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="2"/>
-        <v>15.378905653953471</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>15.478757953643786</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>16.521384258270196</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>12.418876647949199</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="2"/>
-        <v>15.378905653953471</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>15.478757953643786</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>16.521384258270196</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>12.3558781147003</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="2"/>
-        <v>15.378905653953471</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>15.478757953643786</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>16.521384258270196</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31245B3C-8667-48D7-BD8C-B6683E04421E}">
-  <dimension ref="A1:K22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="5" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>19.981394529342602</v>
-      </c>
-      <c r="C3" s="1">
-        <f>_xlfn.PERCENTILE.INC($B$3:$B$22, 0.9)</f>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D3" s="1">
-        <f>_xlfn.PERCENTILE.INC($B$3:$B$22, 0.95)</f>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E3" s="1">
-        <f>_xlfn.PERCENTILE.INC($B$3:$B$22, 0.99)</f>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>19.121957063674898</v>
-      </c>
-      <c r="C4" s="1">
-        <f>_xlfn.PERCENTILE.INC($B$3:$B$22, 0.9)</f>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D22" si="0">_xlfn.PERCENTILE.INC($B$3:$B$22, 0.95)</f>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E22" si="1">_xlfn.PERCENTILE.INC($B$3:$B$22, 0.99)</f>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>19.6752686500549</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:C22" si="2">_xlfn.PERCENTILE.INC($B$3:$B$22, 0.9)</f>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>18.5294334888458</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="2"/>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>19.1707119941711</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="2"/>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>19.160521984100299</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="2"/>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>19.273889541625898</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="2"/>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>19.711396455764699</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="2"/>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>19.0458180904388</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="2"/>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>19.098216056823698</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="2"/>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>19.044569492339999</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="2"/>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>21.609915018081601</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="2"/>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>29.593332529067901</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="2"/>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>35.848748922348001</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="2"/>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>23.19331741333</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="2"/>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>19.4158082008361</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="2"/>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>19.343692302703801</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="2"/>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>20.5692281723022</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="2"/>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>20.6111850738525</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="2"/>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>19.4150536060333</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="2"/>
-        <v>23.8333189249038</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>29.906103348731911</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>34.66021980762477</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
